--- a/database/data/recintos2023.xlsx
+++ b/database/data/recintos2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSejefe01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\control_electoral\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F007B23F-1330-4193-8CB8-D6AC139497E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBB34E-0952-415B-B839-9288A90BA23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="0" windowWidth="8535" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1395,7 +1382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1428,8 +1415,20 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="&quot;Arial Unicode MS&quot;"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,6 +1459,24 @@
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1488,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1538,6 +1555,55 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,25 +1824,25 @@
   </sheetPr>
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" customWidth="1"/>
@@ -2007,34 +2073,34 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
         <v>2130</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="27">
         <v>32748129</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="28">
         <v>1</v>
       </c>
       <c r="L4" s="11">
@@ -2043,13 +2109,13 @@
       <c r="M4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="28">
         <v>6</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="28">
         <v>6</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="28">
         <v>5</v>
       </c>
       <c r="Q4" s="11">
@@ -4482,31 +4548,31 @@
       <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="45">
+        <v>2</v>
+      </c>
+      <c r="G40" s="46">
         <v>1727</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="46">
         <v>32442187</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="47">
         <v>5</v>
       </c>
       <c r="L40" s="11">
@@ -4576,7 +4642,7 @@
       <c r="J41" s="9">
         <v>32442082</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="43">
         <v>4</v>
       </c>
       <c r="L41" s="13">
@@ -4646,7 +4712,7 @@
       <c r="J42" s="6">
         <v>32441418</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="47">
         <v>2</v>
       </c>
       <c r="L42" s="11">
@@ -4716,7 +4782,7 @@
       <c r="J43" s="9">
         <v>32405068</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="43">
         <v>1</v>
       </c>
       <c r="L43" s="13">
@@ -4755,139 +4821,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
+    <row r="44" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="26">
+        <v>2</v>
+      </c>
+      <c r="G44" s="27">
         <v>3131</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="27">
         <v>32456350</v>
       </c>
-      <c r="K44" s="11">
-        <v>2</v>
-      </c>
-      <c r="L44" s="11">
-        <v>2</v>
-      </c>
-      <c r="M44" s="12">
+      <c r="K44" s="28">
+        <v>2</v>
+      </c>
+      <c r="L44" s="28">
+        <v>2</v>
+      </c>
+      <c r="M44" s="29">
         <v>4</v>
       </c>
-      <c r="N44" s="11">
-        <v>1</v>
-      </c>
-      <c r="O44" s="11">
-        <v>2</v>
-      </c>
-      <c r="P44" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>2</v>
-      </c>
-      <c r="R44" s="15">
+      <c r="N44" s="28">
+        <v>1</v>
+      </c>
+      <c r="O44" s="28">
+        <v>2</v>
+      </c>
+      <c r="P44" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>2</v>
+      </c>
+      <c r="R44" s="30">
         <v>1400</v>
       </c>
-      <c r="S44" s="16" t="s">
+      <c r="S44" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="T44" s="17" t="s">
+      <c r="T44" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="U44" s="17">
+      <c r="U44" s="32">
         <v>0</v>
       </c>
-      <c r="V44" s="17"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A45" s="7">
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="35">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="7">
-        <v>2</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F45" s="35">
+        <v>2</v>
+      </c>
+      <c r="G45" s="37">
         <v>3210</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="37">
         <v>32456364</v>
       </c>
-      <c r="K45" s="13">
-        <v>3</v>
-      </c>
-      <c r="L45" s="13">
-        <v>3</v>
-      </c>
-      <c r="M45" s="14">
+      <c r="K45" s="38">
+        <v>3</v>
+      </c>
+      <c r="L45" s="38">
+        <v>3</v>
+      </c>
+      <c r="M45" s="39">
         <v>6</v>
       </c>
-      <c r="N45" s="13">
-        <v>3</v>
-      </c>
-      <c r="O45" s="13">
+      <c r="N45" s="38">
+        <v>3</v>
+      </c>
+      <c r="O45" s="38">
         <v>5</v>
       </c>
-      <c r="P45" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="13">
+      <c r="P45" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="38">
         <v>5</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R45" s="40">
         <v>1545</v>
       </c>
-      <c r="S45" s="20" t="s">
+      <c r="S45" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="22" t="s">
+      <c r="T45" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U45" s="22">
+      <c r="U45" s="42">
         <v>0</v>
       </c>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22">
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42">
         <v>2</v>
       </c>
     </row>
@@ -13770,5 +13836,6 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/data/recintos2023.xlsx
+++ b/database/data/recintos2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\control_electoral\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBB34E-0952-415B-B839-9288A90BA23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AA212-BD60-4179-8319-B5E01B8967FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11955" yWindow="0" windowWidth="8535" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="3885" windowWidth="17085" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="451">
   <si>
     <t>N</t>
   </si>
@@ -1428,7 +1439,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1488,18 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1505,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1602,6 +1625,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1824,11 +1853,11 @@
   </sheetPr>
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1837,22 +1866,23 @@
     <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="74.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="74.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
@@ -1969,10 +1999,10 @@
       <c r="M2" s="12">
         <v>4</v>
       </c>
-      <c r="N2" s="11">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11">
+      <c r="N2" s="48">
+        <v>1</v>
+      </c>
+      <c r="O2" s="48">
         <v>2</v>
       </c>
       <c r="P2" s="11">
@@ -2039,10 +2069,10 @@
       <c r="M3" s="14">
         <v>5</v>
       </c>
-      <c r="N3" s="13">
-        <v>3</v>
-      </c>
-      <c r="O3" s="13">
+      <c r="N3" s="49">
+        <v>3</v>
+      </c>
+      <c r="O3" s="49">
         <v>5</v>
       </c>
       <c r="P3" s="13">
@@ -2109,10 +2139,10 @@
       <c r="M4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="48">
         <v>6</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="48">
         <v>6</v>
       </c>
       <c r="P4" s="28">
@@ -2179,10 +2209,10 @@
       <c r="M5" s="14">
         <v>5</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="49">
         <v>7</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="49">
         <v>8</v>
       </c>
       <c r="P5" s="13">
@@ -2249,10 +2279,10 @@
       <c r="M6" s="12">
         <v>2</v>
       </c>
-      <c r="N6" s="11">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="48">
+        <v>1</v>
+      </c>
+      <c r="O6" s="48">
         <v>1</v>
       </c>
       <c r="P6" s="11">
@@ -4581,10 +4611,10 @@
       <c r="M40" s="12">
         <v>10</v>
       </c>
-      <c r="N40" s="11">
-        <v>1</v>
-      </c>
-      <c r="O40" s="11">
+      <c r="N40" s="48">
+        <v>1</v>
+      </c>
+      <c r="O40" s="48">
         <v>5</v>
       </c>
       <c r="P40" s="11">
@@ -4651,10 +4681,10 @@
       <c r="M41" s="14">
         <v>9</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="49">
         <v>6</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="49">
         <v>9</v>
       </c>
       <c r="P41" s="13">
@@ -4721,10 +4751,10 @@
       <c r="M42" s="12">
         <v>3</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="48">
         <v>10</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="48">
         <v>11</v>
       </c>
       <c r="P42" s="11">
@@ -4791,10 +4821,10 @@
       <c r="M43" s="14">
         <v>2</v>
       </c>
-      <c r="N43" s="13">
-        <v>1</v>
-      </c>
-      <c r="O43" s="13">
+      <c r="N43" s="49">
+        <v>1</v>
+      </c>
+      <c r="O43" s="49">
         <v>1</v>
       </c>
       <c r="P43" s="13">
@@ -4831,7 +4861,9 @@
       <c r="C44" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="E44" s="26" t="s">
         <v>26</v>
       </c>
@@ -4859,10 +4891,10 @@
       <c r="M44" s="29">
         <v>4</v>
       </c>
-      <c r="N44" s="28">
-        <v>1</v>
-      </c>
-      <c r="O44" s="28">
+      <c r="N44" s="48">
+        <v>1</v>
+      </c>
+      <c r="O44" s="48">
         <v>2</v>
       </c>
       <c r="P44" s="28">
@@ -4899,7 +4931,9 @@
       <c r="C45" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="36" t="s">
+        <v>135</v>
+      </c>
       <c r="E45" s="35" t="s">
         <v>26</v>
       </c>
@@ -4927,10 +4961,10 @@
       <c r="M45" s="39">
         <v>6</v>
       </c>
-      <c r="N45" s="38">
-        <v>3</v>
-      </c>
-      <c r="O45" s="38">
+      <c r="N45" s="49">
+        <v>3</v>
+      </c>
+      <c r="O45" s="49">
         <v>5</v>
       </c>
       <c r="P45" s="38">
@@ -6141,7 +6175,9 @@
       <c r="C63" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="E63" s="7" t="s">
         <v>77</v>
       </c>
@@ -6169,10 +6205,10 @@
       <c r="M63" s="14">
         <v>6</v>
       </c>
-      <c r="N63" s="13">
-        <v>1</v>
-      </c>
-      <c r="O63" s="13">
+      <c r="N63" s="49">
+        <v>1</v>
+      </c>
+      <c r="O63" s="49">
         <v>3</v>
       </c>
       <c r="P63" s="13">
@@ -6209,7 +6245,9 @@
       <c r="C64" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E64" s="4" t="s">
         <v>26</v>
       </c>
@@ -6237,10 +6275,10 @@
       <c r="M64" s="12">
         <v>20</v>
       </c>
-      <c r="N64" s="11">
-        <v>1</v>
-      </c>
-      <c r="O64" s="11">
+      <c r="N64" s="48">
+        <v>1</v>
+      </c>
+      <c r="O64" s="48">
         <v>10</v>
       </c>
       <c r="P64" s="11">
@@ -6279,7 +6317,9 @@
       <c r="C65" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>26</v>
       </c>
@@ -6307,10 +6347,10 @@
       <c r="M65" s="14">
         <v>10</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="49">
         <v>11</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="49">
         <v>15</v>
       </c>
       <c r="P65" s="13">
@@ -6347,7 +6387,9 @@
       <c r="C66" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>26</v>
       </c>
@@ -6375,10 +6417,10 @@
       <c r="M66" s="12">
         <v>5</v>
       </c>
-      <c r="N66" s="11">
+      <c r="N66" s="48">
         <v>16</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O66" s="48">
         <v>18</v>
       </c>
       <c r="P66" s="11">
@@ -6415,7 +6457,9 @@
       <c r="C67" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="E67" s="7" t="s">
         <v>26</v>
       </c>
@@ -6443,10 +6487,10 @@
       <c r="M67" s="14">
         <v>6</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="49">
         <v>19</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="49">
         <v>21</v>
       </c>
       <c r="P67" s="13">
@@ -6483,7 +6527,9 @@
       <c r="C68" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E68" s="4" t="s">
         <v>26</v>
       </c>
@@ -6511,10 +6557,10 @@
       <c r="M68" s="12">
         <v>10</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N68" s="48">
         <v>22</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O68" s="48">
         <v>26</v>
       </c>
       <c r="P68" s="11">
@@ -6551,7 +6597,9 @@
       <c r="C69" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="E69" s="7" t="s">
         <v>26</v>
       </c>
@@ -6579,10 +6627,10 @@
       <c r="M69" s="14">
         <v>21</v>
       </c>
-      <c r="N69" s="13">
-        <v>1</v>
-      </c>
-      <c r="O69" s="13">
+      <c r="N69" s="49">
+        <v>1</v>
+      </c>
+      <c r="O69" s="49">
         <v>10</v>
       </c>
       <c r="P69" s="13">
@@ -6621,7 +6669,9 @@
       <c r="C70" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="E70" s="4" t="s">
         <v>26</v>
       </c>
@@ -6649,10 +6699,10 @@
       <c r="M70" s="12">
         <v>5</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N70" s="48">
         <v>11</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O70" s="48">
         <v>13</v>
       </c>
       <c r="P70" s="11">
@@ -6719,10 +6769,10 @@
       <c r="M71" s="14">
         <v>7</v>
       </c>
-      <c r="N71" s="13">
-        <v>1</v>
-      </c>
-      <c r="O71" s="13">
+      <c r="N71" s="49">
+        <v>1</v>
+      </c>
+      <c r="O71" s="49">
         <v>4</v>
       </c>
       <c r="P71" s="13">
@@ -6789,10 +6839,10 @@
       <c r="M72" s="12">
         <v>6</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N72" s="48">
         <v>5</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O72" s="48">
         <v>7</v>
       </c>
       <c r="P72" s="11">
@@ -6859,10 +6909,10 @@
       <c r="M73" s="14">
         <v>3</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="49">
         <v>8</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="49">
         <v>8</v>
       </c>
       <c r="P73" s="13">
@@ -6929,10 +6979,10 @@
       <c r="M74" s="12">
         <v>6</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N74" s="48">
         <v>9</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O74" s="48">
         <v>11</v>
       </c>
       <c r="P74" s="11">
@@ -6999,10 +7049,10 @@
       <c r="M75" s="14">
         <v>2</v>
       </c>
-      <c r="N75" s="13">
-        <v>1</v>
-      </c>
-      <c r="O75" s="13">
+      <c r="N75" s="49">
+        <v>1</v>
+      </c>
+      <c r="O75" s="49">
         <v>1</v>
       </c>
       <c r="P75" s="13">
@@ -7069,10 +7119,10 @@
       <c r="M76" s="12">
         <v>2</v>
       </c>
-      <c r="N76" s="11">
-        <v>1</v>
-      </c>
-      <c r="O76" s="11">
+      <c r="N76" s="48">
+        <v>1</v>
+      </c>
+      <c r="O76" s="48">
         <v>1</v>
       </c>
       <c r="P76" s="11">
@@ -7139,10 +7189,10 @@
       <c r="M77" s="14">
         <v>2</v>
       </c>
-      <c r="N77" s="13">
-        <v>1</v>
-      </c>
-      <c r="O77" s="13">
+      <c r="N77" s="49">
+        <v>1</v>
+      </c>
+      <c r="O77" s="49">
         <v>1</v>
       </c>
       <c r="P77" s="13">
@@ -7179,7 +7229,9 @@
       <c r="C78" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="E78" s="4" t="s">
         <v>26</v>
       </c>
@@ -7207,10 +7259,10 @@
       <c r="M78" s="12">
         <v>8</v>
       </c>
-      <c r="N78" s="11">
-        <v>1</v>
-      </c>
-      <c r="O78" s="11">
+      <c r="N78" s="48">
+        <v>1</v>
+      </c>
+      <c r="O78" s="48">
         <v>4</v>
       </c>
       <c r="P78" s="11">
@@ -7247,7 +7299,9 @@
       <c r="C79" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="E79" s="7" t="s">
         <v>26</v>
       </c>
@@ -7275,10 +7329,10 @@
       <c r="M79" s="14">
         <v>10</v>
       </c>
-      <c r="N79" s="13">
-        <v>1</v>
-      </c>
-      <c r="O79" s="13">
+      <c r="N79" s="49">
+        <v>1</v>
+      </c>
+      <c r="O79" s="49">
         <v>5</v>
       </c>
       <c r="P79" s="13">
@@ -7345,10 +7399,10 @@
       <c r="M80" s="12">
         <v>6</v>
       </c>
-      <c r="N80" s="11">
-        <v>1</v>
-      </c>
-      <c r="O80" s="11">
+      <c r="N80" s="48">
+        <v>1</v>
+      </c>
+      <c r="O80" s="48">
         <v>3</v>
       </c>
       <c r="P80" s="11">
@@ -7415,10 +7469,10 @@
       <c r="M81" s="14">
         <v>2</v>
       </c>
-      <c r="N81" s="13">
-        <v>1</v>
-      </c>
-      <c r="O81" s="13">
+      <c r="N81" s="49">
+        <v>1</v>
+      </c>
+      <c r="O81" s="49">
         <v>1</v>
       </c>
       <c r="P81" s="13">
@@ -7485,10 +7539,10 @@
       <c r="M82" s="12">
         <v>2</v>
       </c>
-      <c r="N82" s="11">
-        <v>1</v>
-      </c>
-      <c r="O82" s="11">
+      <c r="N82" s="48">
+        <v>1</v>
+      </c>
+      <c r="O82" s="48">
         <v>1</v>
       </c>
       <c r="P82" s="11">
@@ -8657,10 +8711,10 @@
       <c r="M99" s="14">
         <v>16</v>
       </c>
-      <c r="N99" s="13">
-        <v>1</v>
-      </c>
-      <c r="O99" s="13">
+      <c r="N99" s="49">
+        <v>1</v>
+      </c>
+      <c r="O99" s="49">
         <v>8</v>
       </c>
       <c r="P99" s="13">
@@ -8729,10 +8783,10 @@
       <c r="M100" s="12">
         <v>16</v>
       </c>
-      <c r="N100" s="11">
+      <c r="N100" s="48">
         <v>9</v>
       </c>
-      <c r="O100" s="11">
+      <c r="O100" s="48">
         <v>16</v>
       </c>
       <c r="P100" s="11">
@@ -8801,10 +8855,10 @@
       <c r="M101" s="14">
         <v>10</v>
       </c>
-      <c r="N101" s="13">
+      <c r="N101" s="49">
         <v>17</v>
       </c>
-      <c r="O101" s="13">
+      <c r="O101" s="49">
         <v>21</v>
       </c>
       <c r="P101" s="13">
@@ -8873,10 +8927,10 @@
       <c r="M102" s="12">
         <v>10</v>
       </c>
-      <c r="N102" s="11">
+      <c r="N102" s="48">
         <v>22</v>
       </c>
-      <c r="O102" s="11">
+      <c r="O102" s="48">
         <v>27</v>
       </c>
       <c r="P102" s="11">
@@ -8945,10 +8999,10 @@
       <c r="M103" s="14">
         <v>22</v>
       </c>
-      <c r="N103" s="13">
+      <c r="N103" s="49">
         <v>28</v>
       </c>
-      <c r="O103" s="13">
+      <c r="O103" s="49">
         <v>39</v>
       </c>
       <c r="P103" s="13">
@@ -9017,10 +9071,10 @@
       <c r="M104" s="12">
         <v>11</v>
       </c>
-      <c r="N104" s="11">
+      <c r="N104" s="48">
         <v>40</v>
       </c>
-      <c r="O104" s="11">
+      <c r="O104" s="48">
         <v>45</v>
       </c>
       <c r="P104" s="11">
@@ -9089,10 +9143,10 @@
       <c r="M105" s="14">
         <v>2</v>
       </c>
-      <c r="N105" s="13">
-        <v>1</v>
-      </c>
-      <c r="O105" s="13">
+      <c r="N105" s="49">
+        <v>1</v>
+      </c>
+      <c r="O105" s="49">
         <v>1</v>
       </c>
       <c r="P105" s="13">
@@ -9129,7 +9183,9 @@
       <c r="C106" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D106" s="5"/>
+      <c r="D106" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E106" s="4" t="s">
         <v>77</v>
       </c>
@@ -9157,10 +9213,10 @@
       <c r="M106" s="12">
         <v>10</v>
       </c>
-      <c r="N106" s="11">
-        <v>1</v>
-      </c>
-      <c r="O106" s="11">
+      <c r="N106" s="48">
+        <v>1</v>
+      </c>
+      <c r="O106" s="48">
         <v>5</v>
       </c>
       <c r="P106" s="11">
@@ -9199,7 +9255,9 @@
       <c r="C107" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E107" s="7" t="s">
         <v>77</v>
       </c>
@@ -9227,10 +9285,10 @@
       <c r="M107" s="14">
         <v>14</v>
       </c>
-      <c r="N107" s="13">
+      <c r="N107" s="49">
         <v>6</v>
       </c>
-      <c r="O107" s="13">
+      <c r="O107" s="49">
         <v>12</v>
       </c>
       <c r="P107" s="13">
@@ -9269,7 +9327,9 @@
       <c r="C108" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E108" s="4" t="s">
         <v>77</v>
       </c>
@@ -9297,10 +9357,10 @@
       <c r="M108" s="12">
         <v>12</v>
       </c>
-      <c r="N108" s="11">
+      <c r="N108" s="48">
         <v>13</v>
       </c>
-      <c r="O108" s="11">
+      <c r="O108" s="48">
         <v>18</v>
       </c>
       <c r="P108" s="11">
@@ -9339,7 +9399,9 @@
       <c r="C109" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E109" s="7" t="s">
         <v>77</v>
       </c>
@@ -9367,10 +9429,10 @@
       <c r="M109" s="14">
         <v>8</v>
       </c>
-      <c r="N109" s="13">
+      <c r="N109" s="49">
         <v>19</v>
       </c>
-      <c r="O109" s="13">
+      <c r="O109" s="49">
         <v>22</v>
       </c>
       <c r="P109" s="13">
@@ -9407,7 +9469,9 @@
       <c r="C110" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D110" s="5"/>
+      <c r="D110" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E110" s="4" t="s">
         <v>77</v>
       </c>
@@ -9435,10 +9499,10 @@
       <c r="M110" s="12">
         <v>10</v>
       </c>
-      <c r="N110" s="11">
+      <c r="N110" s="48">
         <v>23</v>
       </c>
-      <c r="O110" s="11">
+      <c r="O110" s="48">
         <v>27</v>
       </c>
       <c r="P110" s="11">
@@ -9475,7 +9539,9 @@
       <c r="C111" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="D111" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E111" s="7" t="s">
         <v>77</v>
       </c>
@@ -9503,10 +9569,10 @@
       <c r="M111" s="14">
         <v>10</v>
       </c>
-      <c r="N111" s="13">
+      <c r="N111" s="49">
         <v>28</v>
       </c>
-      <c r="O111" s="13">
+      <c r="O111" s="49">
         <v>34</v>
       </c>
       <c r="P111" s="13">
@@ -9545,7 +9611,9 @@
       <c r="C112" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E112" s="4" t="s">
         <v>77</v>
       </c>
@@ -9573,10 +9641,10 @@
       <c r="M112" s="12">
         <v>12</v>
       </c>
-      <c r="N112" s="11">
-        <v>1</v>
-      </c>
-      <c r="O112" s="11">
+      <c r="N112" s="48">
+        <v>1</v>
+      </c>
+      <c r="O112" s="48">
         <v>6</v>
       </c>
       <c r="P112" s="11">
@@ -9615,7 +9683,9 @@
       <c r="C113" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="E113" s="7" t="s">
         <v>77</v>
       </c>
@@ -9643,10 +9713,10 @@
       <c r="M113" s="14">
         <v>9</v>
       </c>
-      <c r="N113" s="13">
+      <c r="N113" s="49">
         <v>7</v>
       </c>
-      <c r="O113" s="13">
+      <c r="O113" s="49">
         <v>11</v>
       </c>
       <c r="P113" s="13">
@@ -9713,10 +9783,10 @@
       <c r="M114" s="12">
         <v>22</v>
       </c>
-      <c r="N114" s="11">
-        <v>1</v>
-      </c>
-      <c r="O114" s="11">
+      <c r="N114" s="48">
+        <v>1</v>
+      </c>
+      <c r="O114" s="48">
         <v>11</v>
       </c>
       <c r="P114" s="11">
@@ -9785,10 +9855,10 @@
       <c r="M115" s="14">
         <v>8</v>
       </c>
-      <c r="N115" s="13">
+      <c r="N115" s="49">
         <v>12</v>
       </c>
-      <c r="O115" s="13">
+      <c r="O115" s="49">
         <v>15</v>
       </c>
       <c r="P115" s="13">
@@ -9855,10 +9925,10 @@
       <c r="M116" s="12">
         <v>7</v>
       </c>
-      <c r="N116" s="11">
+      <c r="N116" s="48">
         <v>16</v>
       </c>
-      <c r="O116" s="11">
+      <c r="O116" s="48">
         <v>19</v>
       </c>
       <c r="P116" s="11">
@@ -9925,10 +9995,10 @@
       <c r="M117" s="14">
         <v>2</v>
       </c>
-      <c r="N117" s="13">
-        <v>1</v>
-      </c>
-      <c r="O117" s="13">
+      <c r="N117" s="49">
+        <v>1</v>
+      </c>
+      <c r="O117" s="49">
         <v>1</v>
       </c>
       <c r="P117" s="13">
@@ -9995,10 +10065,10 @@
       <c r="M118" s="12">
         <v>7</v>
       </c>
-      <c r="N118" s="11">
-        <v>1</v>
-      </c>
-      <c r="O118" s="11">
+      <c r="N118" s="48">
+        <v>1</v>
+      </c>
+      <c r="O118" s="48">
         <v>4</v>
       </c>
       <c r="P118" s="11">
@@ -10065,10 +10135,10 @@
       <c r="M119" s="14">
         <v>6</v>
       </c>
-      <c r="N119" s="13">
+      <c r="N119" s="49">
         <v>5</v>
       </c>
-      <c r="O119" s="13">
+      <c r="O119" s="49">
         <v>6</v>
       </c>
       <c r="P119" s="13">
@@ -10135,10 +10205,10 @@
       <c r="M120" s="12">
         <v>4</v>
       </c>
-      <c r="N120" s="11">
+      <c r="N120" s="48">
         <v>7</v>
       </c>
-      <c r="O120" s="11">
+      <c r="O120" s="48">
         <v>8</v>
       </c>
       <c r="P120" s="11">
@@ -10205,10 +10275,10 @@
       <c r="M121" s="14">
         <v>3</v>
       </c>
-      <c r="N121" s="13">
+      <c r="N121" s="49">
         <v>9</v>
       </c>
-      <c r="O121" s="13">
+      <c r="O121" s="49">
         <v>10</v>
       </c>
       <c r="P121" s="13">
@@ -10275,10 +10345,10 @@
       <c r="M122" s="12">
         <v>4</v>
       </c>
-      <c r="N122" s="11">
-        <v>1</v>
-      </c>
-      <c r="O122" s="11">
+      <c r="N122" s="48">
+        <v>1</v>
+      </c>
+      <c r="O122" s="48">
         <v>2</v>
       </c>
       <c r="P122" s="11">
@@ -10345,10 +10415,10 @@
       <c r="M123" s="14">
         <v>12</v>
       </c>
-      <c r="N123" s="13">
-        <v>1</v>
-      </c>
-      <c r="O123" s="13">
+      <c r="N123" s="49">
+        <v>1</v>
+      </c>
+      <c r="O123" s="49">
         <v>6</v>
       </c>
       <c r="P123" s="13">
@@ -10417,10 +10487,10 @@
       <c r="M124" s="12">
         <v>2</v>
       </c>
-      <c r="N124" s="11">
-        <v>1</v>
-      </c>
-      <c r="O124" s="11">
+      <c r="N124" s="48">
+        <v>1</v>
+      </c>
+      <c r="O124" s="48">
         <v>1</v>
       </c>
       <c r="P124" s="11">
@@ -10487,10 +10557,10 @@
       <c r="M125" s="14">
         <v>15</v>
       </c>
-      <c r="N125" s="13">
-        <v>1</v>
-      </c>
-      <c r="O125" s="13">
+      <c r="N125" s="49">
+        <v>1</v>
+      </c>
+      <c r="O125" s="49">
         <v>8</v>
       </c>
       <c r="P125" s="13">
@@ -10559,10 +10629,10 @@
       <c r="M126" s="12">
         <v>14</v>
       </c>
-      <c r="N126" s="11">
+      <c r="N126" s="48">
         <v>9</v>
       </c>
-      <c r="O126" s="11">
+      <c r="O126" s="48">
         <v>15</v>
       </c>
       <c r="P126" s="11">
@@ -10631,10 +10701,10 @@
       <c r="M127" s="14">
         <v>3</v>
       </c>
-      <c r="N127" s="13">
-        <v>1</v>
-      </c>
-      <c r="O127" s="13">
+      <c r="N127" s="49">
+        <v>1</v>
+      </c>
+      <c r="O127" s="49">
         <v>2</v>
       </c>
       <c r="P127" s="13">
@@ -10701,10 +10771,10 @@
       <c r="M128" s="12">
         <v>6</v>
       </c>
-      <c r="N128" s="11">
-        <v>1</v>
-      </c>
-      <c r="O128" s="11">
+      <c r="N128" s="48">
+        <v>1</v>
+      </c>
+      <c r="O128" s="48">
         <v>3</v>
       </c>
       <c r="P128" s="11">
@@ -10771,10 +10841,10 @@
       <c r="M129" s="14">
         <v>6</v>
       </c>
-      <c r="N129" s="13">
+      <c r="N129" s="49">
         <v>4</v>
       </c>
-      <c r="O129" s="13">
+      <c r="O129" s="49">
         <v>6</v>
       </c>
       <c r="P129" s="13">
@@ -10841,10 +10911,10 @@
       <c r="M130" s="12">
         <v>6</v>
       </c>
-      <c r="N130" s="11">
+      <c r="N130" s="48">
         <v>7</v>
       </c>
-      <c r="O130" s="11">
+      <c r="O130" s="48">
         <v>9</v>
       </c>
       <c r="P130" s="11">
@@ -10911,10 +10981,10 @@
       <c r="M131" s="14">
         <v>2</v>
       </c>
-      <c r="N131" s="13">
-        <v>1</v>
-      </c>
-      <c r="O131" s="13">
+      <c r="N131" s="49">
+        <v>1</v>
+      </c>
+      <c r="O131" s="49">
         <v>1</v>
       </c>
       <c r="P131" s="13">
@@ -10951,7 +11021,9 @@
       <c r="C132" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D132" s="5"/>
+      <c r="D132" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="E132" s="4" t="s">
         <v>26</v>
       </c>
@@ -10979,10 +11051,10 @@
       <c r="M132" s="12">
         <v>7</v>
       </c>
-      <c r="N132" s="11">
-        <v>1</v>
-      </c>
-      <c r="O132" s="11">
+      <c r="N132" s="48">
+        <v>1</v>
+      </c>
+      <c r="O132" s="48">
         <v>4</v>
       </c>
       <c r="P132" s="11">
@@ -11019,7 +11091,9 @@
       <c r="C133" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D133" s="8"/>
+      <c r="D133" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E133" s="7" t="s">
         <v>77</v>
       </c>
@@ -11047,10 +11121,10 @@
       <c r="M133" s="14">
         <v>20</v>
       </c>
-      <c r="N133" s="13">
-        <v>1</v>
-      </c>
-      <c r="O133" s="13">
+      <c r="N133" s="49">
+        <v>1</v>
+      </c>
+      <c r="O133" s="49">
         <v>10</v>
       </c>
       <c r="P133" s="13">
@@ -11089,7 +11163,9 @@
       <c r="C134" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>77</v>
       </c>
@@ -11117,10 +11193,10 @@
       <c r="M134" s="12">
         <v>13</v>
       </c>
-      <c r="N134" s="11">
+      <c r="N134" s="48">
         <v>11</v>
       </c>
-      <c r="O134" s="11">
+      <c r="O134" s="48">
         <v>17</v>
       </c>
       <c r="P134" s="11">
@@ -11159,7 +11235,9 @@
       <c r="C135" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E135" s="7" t="s">
         <v>77</v>
       </c>
@@ -11187,10 +11265,10 @@
       <c r="M135" s="14">
         <v>12</v>
       </c>
-      <c r="N135" s="13">
+      <c r="N135" s="49">
         <v>18</v>
       </c>
-      <c r="O135" s="13">
+      <c r="O135" s="49">
         <v>23</v>
       </c>
       <c r="P135" s="13">
@@ -11229,7 +11307,9 @@
       <c r="C136" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D136" s="5"/>
+      <c r="D136" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E136" s="4" t="s">
         <v>77</v>
       </c>
@@ -11257,10 +11337,10 @@
       <c r="M136" s="12">
         <v>12</v>
       </c>
-      <c r="N136" s="11">
+      <c r="N136" s="48">
         <v>24</v>
       </c>
-      <c r="O136" s="11">
+      <c r="O136" s="48">
         <v>30</v>
       </c>
       <c r="P136" s="11">
@@ -11297,7 +11377,9 @@
       <c r="C137" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D137" s="8"/>
+      <c r="D137" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E137" s="7" t="s">
         <v>77</v>
       </c>
@@ -11325,10 +11407,10 @@
       <c r="M137" s="14">
         <v>13</v>
       </c>
-      <c r="N137" s="13">
+      <c r="N137" s="49">
         <v>31</v>
       </c>
-      <c r="O137" s="13">
+      <c r="O137" s="49">
         <v>37</v>
       </c>
       <c r="P137" s="13">
@@ -11367,7 +11449,9 @@
       <c r="C138" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D138" s="5"/>
+      <c r="D138" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E138" s="4" t="s">
         <v>77</v>
       </c>
@@ -11395,10 +11479,10 @@
       <c r="M138" s="12">
         <v>20</v>
       </c>
-      <c r="N138" s="11">
+      <c r="N138" s="48">
         <v>38</v>
       </c>
-      <c r="O138" s="11">
+      <c r="O138" s="48">
         <v>47</v>
       </c>
       <c r="P138" s="11">
@@ -11437,7 +11521,9 @@
       <c r="C139" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D139" s="8"/>
+      <c r="D139" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E139" s="7" t="s">
         <v>77</v>
       </c>
@@ -11465,10 +11551,10 @@
       <c r="M139" s="14">
         <v>20</v>
       </c>
-      <c r="N139" s="13">
+      <c r="N139" s="49">
         <v>48</v>
       </c>
-      <c r="O139" s="13">
+      <c r="O139" s="49">
         <v>57</v>
       </c>
       <c r="P139" s="13">
@@ -11507,7 +11593,9 @@
       <c r="C140" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D140" s="5"/>
+      <c r="D140" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E140" s="4" t="s">
         <v>77</v>
       </c>
@@ -11535,10 +11623,10 @@
       <c r="M140" s="12">
         <v>20</v>
       </c>
-      <c r="N140" s="11">
+      <c r="N140" s="48">
         <v>58</v>
       </c>
-      <c r="O140" s="11">
+      <c r="O140" s="48">
         <v>67</v>
       </c>
       <c r="P140" s="11">
@@ -11577,7 +11665,9 @@
       <c r="C141" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E141" s="7" t="s">
         <v>77</v>
       </c>
@@ -11605,10 +11695,10 @@
       <c r="M141" s="14">
         <v>8</v>
       </c>
-      <c r="N141" s="13">
+      <c r="N141" s="49">
         <v>68</v>
       </c>
-      <c r="O141" s="13">
+      <c r="O141" s="49">
         <v>71</v>
       </c>
       <c r="P141" s="13">
@@ -11645,7 +11735,9 @@
       <c r="C142" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D142" s="5"/>
+      <c r="D142" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E142" s="4" t="s">
         <v>77</v>
       </c>
@@ -11673,10 +11765,10 @@
       <c r="M142" s="12">
         <v>12</v>
       </c>
-      <c r="N142" s="11">
+      <c r="N142" s="48">
         <v>72</v>
       </c>
-      <c r="O142" s="11">
+      <c r="O142" s="48">
         <v>77</v>
       </c>
       <c r="P142" s="11">
@@ -11713,7 +11805,9 @@
       <c r="C143" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="E143" s="7" t="s">
         <v>77</v>
       </c>
@@ -11741,10 +11835,10 @@
       <c r="M143" s="14">
         <v>7</v>
       </c>
-      <c r="N143" s="13">
+      <c r="N143" s="49">
         <v>78</v>
       </c>
-      <c r="O143" s="13">
+      <c r="O143" s="49">
         <v>81</v>
       </c>
       <c r="P143" s="13">
@@ -11781,7 +11875,9 @@
       <c r="C144" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D144" s="5"/>
+      <c r="D144" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="E144" s="4" t="s">
         <v>77</v>
       </c>
@@ -11809,10 +11905,10 @@
       <c r="M144" s="12">
         <v>9</v>
       </c>
-      <c r="N144" s="11">
-        <v>1</v>
-      </c>
-      <c r="O144" s="11">
+      <c r="N144" s="48">
+        <v>1</v>
+      </c>
+      <c r="O144" s="48">
         <v>5</v>
       </c>
       <c r="P144" s="11">
@@ -11879,10 +11975,10 @@
       <c r="M145" s="14">
         <v>10</v>
       </c>
-      <c r="N145" s="13">
-        <v>1</v>
-      </c>
-      <c r="O145" s="13">
+      <c r="N145" s="49">
+        <v>1</v>
+      </c>
+      <c r="O145" s="49">
         <v>5</v>
       </c>
       <c r="P145" s="13">
@@ -11949,10 +12045,10 @@
       <c r="M146" s="12">
         <v>8</v>
       </c>
-      <c r="N146" s="11">
+      <c r="N146" s="48">
         <v>6</v>
       </c>
-      <c r="O146" s="11">
+      <c r="O146" s="48">
         <v>9</v>
       </c>
       <c r="P146" s="11">
@@ -12019,10 +12115,10 @@
       <c r="M147" s="14">
         <v>8</v>
       </c>
-      <c r="N147" s="13">
+      <c r="N147" s="49">
         <v>10</v>
       </c>
-      <c r="O147" s="13">
+      <c r="O147" s="49">
         <v>13</v>
       </c>
       <c r="P147" s="13">
@@ -12089,10 +12185,10 @@
       <c r="M148" s="12">
         <v>11</v>
       </c>
-      <c r="N148" s="11">
+      <c r="N148" s="48">
         <v>14</v>
       </c>
-      <c r="O148" s="11">
+      <c r="O148" s="48">
         <v>19</v>
       </c>
       <c r="P148" s="11">
@@ -12159,10 +12255,10 @@
       <c r="M149" s="14">
         <v>2</v>
       </c>
-      <c r="N149" s="13">
-        <v>1</v>
-      </c>
-      <c r="O149" s="13">
+      <c r="N149" s="49">
+        <v>1</v>
+      </c>
+      <c r="O149" s="49">
         <v>1</v>
       </c>
       <c r="P149" s="13">
@@ -12229,10 +12325,10 @@
       <c r="M150" s="12">
         <v>4</v>
       </c>
-      <c r="N150" s="11">
-        <v>1</v>
-      </c>
-      <c r="O150" s="11">
+      <c r="N150" s="48">
+        <v>1</v>
+      </c>
+      <c r="O150" s="48">
         <v>2</v>
       </c>
       <c r="P150" s="11">
@@ -12299,10 +12395,10 @@
       <c r="M151" s="14">
         <v>3</v>
       </c>
-      <c r="N151" s="13">
-        <v>1</v>
-      </c>
-      <c r="O151" s="13">
+      <c r="N151" s="49">
+        <v>1</v>
+      </c>
+      <c r="O151" s="49">
         <v>2</v>
       </c>
       <c r="P151" s="13">
@@ -12369,10 +12465,10 @@
       <c r="M152" s="12">
         <v>4</v>
       </c>
-      <c r="N152" s="11">
-        <v>1</v>
-      </c>
-      <c r="O152" s="11">
+      <c r="N152" s="48">
+        <v>1</v>
+      </c>
+      <c r="O152" s="48">
         <v>2</v>
       </c>
       <c r="P152" s="11">
@@ -12439,10 +12535,10 @@
       <c r="M153" s="14">
         <v>2</v>
       </c>
-      <c r="N153" s="13">
-        <v>1</v>
-      </c>
-      <c r="O153" s="13">
+      <c r="N153" s="49">
+        <v>1</v>
+      </c>
+      <c r="O153" s="49">
         <v>1</v>
       </c>
       <c r="P153" s="13">
@@ -12479,7 +12575,9 @@
       <c r="C154" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D154" s="5"/>
+      <c r="D154" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E154" s="4" t="s">
         <v>77</v>
       </c>
@@ -12507,10 +12605,10 @@
       <c r="M154" s="12">
         <v>10</v>
       </c>
-      <c r="N154" s="11">
-        <v>1</v>
-      </c>
-      <c r="O154" s="11">
+      <c r="N154" s="48">
+        <v>1</v>
+      </c>
+      <c r="O154" s="48">
         <v>5</v>
       </c>
       <c r="P154" s="11">
@@ -12547,7 +12645,9 @@
       <c r="C155" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E155" s="7" t="s">
         <v>77</v>
       </c>
@@ -12575,10 +12675,10 @@
       <c r="M155" s="14">
         <v>10</v>
       </c>
-      <c r="N155" s="13">
+      <c r="N155" s="49">
         <v>6</v>
       </c>
-      <c r="O155" s="13">
+      <c r="O155" s="49">
         <v>10</v>
       </c>
       <c r="P155" s="13">
@@ -12615,7 +12715,9 @@
       <c r="C156" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D156" s="5"/>
+      <c r="D156" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E156" s="4" t="s">
         <v>77</v>
       </c>
@@ -12643,10 +12745,10 @@
       <c r="M156" s="12">
         <v>7</v>
       </c>
-      <c r="N156" s="11">
+      <c r="N156" s="48">
         <v>11</v>
       </c>
-      <c r="O156" s="11">
+      <c r="O156" s="48">
         <v>13</v>
       </c>
       <c r="P156" s="11">
@@ -12683,7 +12785,9 @@
       <c r="C157" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D157" s="8"/>
+      <c r="D157" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E157" s="7" t="s">
         <v>77</v>
       </c>
@@ -12711,10 +12815,10 @@
       <c r="M157" s="14">
         <v>10</v>
       </c>
-      <c r="N157" s="13">
+      <c r="N157" s="49">
         <v>14</v>
       </c>
-      <c r="O157" s="13">
+      <c r="O157" s="49">
         <v>18</v>
       </c>
       <c r="P157" s="13">
@@ -12753,7 +12857,9 @@
       <c r="C158" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D158" s="5"/>
+      <c r="D158" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E158" s="4" t="s">
         <v>77</v>
       </c>
@@ -12781,10 +12887,10 @@
       <c r="M158" s="12">
         <v>19</v>
       </c>
-      <c r="N158" s="11">
+      <c r="N158" s="48">
         <v>19</v>
       </c>
-      <c r="O158" s="11">
+      <c r="O158" s="48">
         <v>28</v>
       </c>
       <c r="P158" s="11">
@@ -12823,7 +12929,9 @@
       <c r="C159" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D159" s="8"/>
+      <c r="D159" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E159" s="7" t="s">
         <v>77</v>
       </c>
@@ -12851,10 +12959,10 @@
       <c r="M159" s="14">
         <v>13</v>
       </c>
-      <c r="N159" s="13">
+      <c r="N159" s="49">
         <v>29</v>
       </c>
-      <c r="O159" s="13">
+      <c r="O159" s="49">
         <v>35</v>
       </c>
       <c r="P159" s="13">
@@ -12893,7 +13001,9 @@
       <c r="C160" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D160" s="5"/>
+      <c r="D160" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="E160" s="4" t="s">
         <v>77</v>
       </c>
@@ -12921,10 +13031,10 @@
       <c r="M160" s="12">
         <v>14</v>
       </c>
-      <c r="N160" s="11">
+      <c r="N160" s="48">
         <v>36</v>
       </c>
-      <c r="O160" s="11">
+      <c r="O160" s="48">
         <v>42</v>
       </c>
       <c r="P160" s="11">
@@ -12993,10 +13103,10 @@
       <c r="M161" s="14">
         <v>14</v>
       </c>
-      <c r="N161" s="13">
-        <v>1</v>
-      </c>
-      <c r="O161" s="13">
+      <c r="N161" s="49">
+        <v>1</v>
+      </c>
+      <c r="O161" s="49">
         <v>8</v>
       </c>
       <c r="P161" s="13">
@@ -13065,10 +13175,10 @@
       <c r="M162" s="12">
         <v>18</v>
       </c>
-      <c r="N162" s="11">
+      <c r="N162" s="48">
         <v>9</v>
       </c>
-      <c r="O162" s="11">
+      <c r="O162" s="48">
         <v>17</v>
       </c>
       <c r="P162" s="11">
@@ -13137,10 +13247,10 @@
       <c r="M163" s="14">
         <v>6</v>
       </c>
-      <c r="N163" s="13">
+      <c r="N163" s="49">
         <v>18</v>
       </c>
-      <c r="O163" s="13">
+      <c r="O163" s="49">
         <v>20</v>
       </c>
       <c r="P163" s="13">
@@ -13207,10 +13317,10 @@
       <c r="M164" s="12">
         <v>7</v>
       </c>
-      <c r="N164" s="11">
+      <c r="N164" s="48">
         <v>21</v>
       </c>
-      <c r="O164" s="11">
+      <c r="O164" s="48">
         <v>23</v>
       </c>
       <c r="P164" s="11">
@@ -13277,10 +13387,10 @@
       <c r="M165" s="14">
         <v>2</v>
       </c>
-      <c r="N165" s="13">
-        <v>1</v>
-      </c>
-      <c r="O165" s="13">
+      <c r="N165" s="49">
+        <v>1</v>
+      </c>
+      <c r="O165" s="49">
         <v>1</v>
       </c>
       <c r="P165" s="13">
@@ -13347,10 +13457,10 @@
       <c r="M166" s="12">
         <v>10</v>
       </c>
-      <c r="N166" s="11">
-        <v>1</v>
-      </c>
-      <c r="O166" s="11">
+      <c r="N166" s="48">
+        <v>1</v>
+      </c>
+      <c r="O166" s="48">
         <v>5</v>
       </c>
       <c r="P166" s="11">
@@ -13417,10 +13527,10 @@
       <c r="M167" s="14">
         <v>10</v>
       </c>
-      <c r="N167" s="13">
+      <c r="N167" s="49">
         <v>6</v>
       </c>
-      <c r="O167" s="13">
+      <c r="O167" s="49">
         <v>10</v>
       </c>
       <c r="P167" s="13">
@@ -13487,10 +13597,10 @@
       <c r="M168" s="12">
         <v>5</v>
       </c>
-      <c r="N168" s="11">
+      <c r="N168" s="48">
         <v>11</v>
       </c>
-      <c r="O168" s="11">
+      <c r="O168" s="48">
         <v>13</v>
       </c>
       <c r="P168" s="11">
@@ -13557,10 +13667,10 @@
       <c r="M169" s="14">
         <v>4</v>
       </c>
-      <c r="N169" s="13">
-        <v>1</v>
-      </c>
-      <c r="O169" s="13">
+      <c r="N169" s="49">
+        <v>1</v>
+      </c>
+      <c r="O169" s="49">
         <v>2</v>
       </c>
       <c r="P169" s="13">
@@ -13627,10 +13737,10 @@
       <c r="M170" s="12">
         <v>3</v>
       </c>
-      <c r="N170" s="11">
-        <v>1</v>
-      </c>
-      <c r="O170" s="11">
+      <c r="N170" s="48">
+        <v>1</v>
+      </c>
+      <c r="O170" s="48">
         <v>2</v>
       </c>
       <c r="P170" s="11">
@@ -13667,7 +13777,9 @@
       <c r="C171" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D171" s="8"/>
+      <c r="D171" s="8" t="s">
+        <v>446</v>
+      </c>
       <c r="E171" s="7" t="s">
         <v>26</v>
       </c>
@@ -13695,10 +13807,10 @@
       <c r="M171" s="14">
         <v>10</v>
       </c>
-      <c r="N171" s="13">
-        <v>1</v>
-      </c>
-      <c r="O171" s="13">
+      <c r="N171" s="49">
+        <v>1</v>
+      </c>
+      <c r="O171" s="49">
         <v>5</v>
       </c>
       <c r="P171" s="13">
@@ -13735,7 +13847,9 @@
       <c r="C172" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D172" s="5"/>
+      <c r="D172" s="8" t="s">
+        <v>446</v>
+      </c>
       <c r="E172" s="4" t="s">
         <v>26</v>
       </c>
@@ -13763,10 +13877,10 @@
       <c r="M172" s="12">
         <v>10</v>
       </c>
-      <c r="N172" s="11">
+      <c r="N172" s="48">
         <v>6</v>
       </c>
-      <c r="O172" s="11">
+      <c r="O172" s="48">
         <v>10</v>
       </c>
       <c r="P172" s="11">

--- a/database/data/recintos2023.xlsx
+++ b/database/data/recintos2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\control_electoral\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AA212-BD60-4179-8319-B5E01B8967FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64907141-7511-484F-9B9D-1D8D57B1C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="3885" windowWidth="17085" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1438,8 +1438,13 @@
       <name val="&quot;Arial Unicode MS&quot;"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,6 +1505,18 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1528,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,6 +1648,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1853,8 +1876,8 @@
   </sheetPr>
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2005,10 +2028,10 @@
       <c r="O2" s="48">
         <v>2</v>
       </c>
-      <c r="P2" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="11">
+      <c r="P2" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="50">
         <v>2</v>
       </c>
       <c r="R2" s="15">
@@ -2075,10 +2098,10 @@
       <c r="O3" s="49">
         <v>5</v>
       </c>
-      <c r="P3" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="P3" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="51">
         <v>4</v>
       </c>
       <c r="R3" s="19">
@@ -2145,10 +2168,10 @@
       <c r="O4" s="48">
         <v>6</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="50">
         <v>5</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="50">
         <v>5</v>
       </c>
       <c r="R4" s="15">
@@ -2215,10 +2238,10 @@
       <c r="O5" s="49">
         <v>8</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="51">
         <v>6</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="51">
         <v>8</v>
       </c>
       <c r="R5" s="19">
@@ -2285,10 +2308,10 @@
       <c r="O6" s="48">
         <v>1</v>
       </c>
-      <c r="P6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="50">
         <v>1</v>
       </c>
       <c r="R6" s="15">
@@ -4617,10 +4640,10 @@
       <c r="O40" s="48">
         <v>5</v>
       </c>
-      <c r="P40" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="P40" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="50">
         <v>5</v>
       </c>
       <c r="R40" s="15">
@@ -4687,10 +4710,10 @@
       <c r="O41" s="49">
         <v>9</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="51">
         <v>6</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="51">
         <v>10</v>
       </c>
       <c r="R41" s="19">
@@ -4757,10 +4780,10 @@
       <c r="O42" s="48">
         <v>11</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="50">
         <v>11</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="50">
         <v>11</v>
       </c>
       <c r="R42" s="15">
@@ -4827,10 +4850,10 @@
       <c r="O43" s="49">
         <v>1</v>
       </c>
-      <c r="P43" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="13">
+      <c r="P43" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="51">
         <v>1</v>
       </c>
       <c r="R43" s="19">
@@ -4897,10 +4920,10 @@
       <c r="O44" s="48">
         <v>2</v>
       </c>
-      <c r="P44" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="28">
+      <c r="P44" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="50">
         <v>2</v>
       </c>
       <c r="R44" s="30">
@@ -4967,10 +4990,10 @@
       <c r="O45" s="49">
         <v>5</v>
       </c>
-      <c r="P45" s="38">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="38">
+      <c r="P45" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="51">
         <v>5</v>
       </c>
       <c r="R45" s="40">
@@ -6211,10 +6234,10 @@
       <c r="O63" s="49">
         <v>3</v>
       </c>
-      <c r="P63" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="13">
+      <c r="P63" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="51">
         <v>3</v>
       </c>
       <c r="R63" s="19">
@@ -6281,10 +6304,10 @@
       <c r="O64" s="48">
         <v>10</v>
       </c>
-      <c r="P64" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="11">
+      <c r="P64" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="50">
         <v>10</v>
       </c>
       <c r="R64" s="15">
@@ -6353,10 +6376,10 @@
       <c r="O65" s="49">
         <v>15</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="51">
         <v>11</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="Q65" s="51">
         <v>15</v>
       </c>
       <c r="R65" s="19">
@@ -6423,10 +6446,10 @@
       <c r="O66" s="48">
         <v>18</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="50">
         <v>16</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q66" s="50">
         <v>17</v>
       </c>
       <c r="R66" s="15">
@@ -6493,10 +6516,10 @@
       <c r="O67" s="49">
         <v>21</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="51">
         <v>18</v>
       </c>
-      <c r="Q67" s="13">
+      <c r="Q67" s="51">
         <v>20</v>
       </c>
       <c r="R67" s="19">
@@ -6563,10 +6586,10 @@
       <c r="O68" s="48">
         <v>26</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P68" s="50">
         <v>21</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q68" s="50">
         <v>25</v>
       </c>
       <c r="R68" s="15">
@@ -6633,10 +6656,10 @@
       <c r="O69" s="49">
         <v>10</v>
       </c>
-      <c r="P69" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="13">
+      <c r="P69" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="51">
         <v>11</v>
       </c>
       <c r="R69" s="19">
@@ -6705,10 +6728,10 @@
       <c r="O70" s="48">
         <v>13</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="50">
         <v>12</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q70" s="50">
         <v>13</v>
       </c>
       <c r="R70" s="15">
@@ -6775,10 +6798,10 @@
       <c r="O71" s="49">
         <v>4</v>
       </c>
-      <c r="P71" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="13">
+      <c r="P71" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="51">
         <v>3</v>
       </c>
       <c r="R71" s="19">
@@ -6845,10 +6868,10 @@
       <c r="O72" s="48">
         <v>7</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="50">
         <v>4</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q72" s="50">
         <v>6</v>
       </c>
       <c r="R72" s="15">
@@ -6915,10 +6938,10 @@
       <c r="O73" s="49">
         <v>8</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="51">
         <v>7</v>
       </c>
-      <c r="Q73" s="13">
+      <c r="Q73" s="51">
         <v>8</v>
       </c>
       <c r="R73" s="19">
@@ -6985,10 +7008,10 @@
       <c r="O74" s="48">
         <v>11</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="50">
         <v>9</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q74" s="50">
         <v>11</v>
       </c>
       <c r="R74" s="15">
@@ -7055,10 +7078,10 @@
       <c r="O75" s="49">
         <v>1</v>
       </c>
-      <c r="P75" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="13">
+      <c r="P75" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="51">
         <v>1</v>
       </c>
       <c r="R75" s="19">
@@ -7125,10 +7148,10 @@
       <c r="O76" s="48">
         <v>1</v>
       </c>
-      <c r="P76" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="11">
+      <c r="P76" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="50">
         <v>1</v>
       </c>
       <c r="R76" s="15">
@@ -7195,10 +7218,10 @@
       <c r="O77" s="49">
         <v>1</v>
       </c>
-      <c r="P77" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="13">
+      <c r="P77" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="51">
         <v>1</v>
       </c>
       <c r="R77" s="19">
@@ -7265,10 +7288,10 @@
       <c r="O78" s="48">
         <v>4</v>
       </c>
-      <c r="P78" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="11">
+      <c r="P78" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="50">
         <v>4</v>
       </c>
       <c r="R78" s="15">
@@ -7335,10 +7358,10 @@
       <c r="O79" s="49">
         <v>5</v>
       </c>
-      <c r="P79" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="13">
+      <c r="P79" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="51">
         <v>5</v>
       </c>
       <c r="R79" s="19">
@@ -7405,10 +7428,10 @@
       <c r="O80" s="48">
         <v>3</v>
       </c>
-      <c r="P80" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="11">
+      <c r="P80" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="50">
         <v>3</v>
       </c>
       <c r="R80" s="15">
@@ -7475,10 +7498,10 @@
       <c r="O81" s="49">
         <v>1</v>
       </c>
-      <c r="P81" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="13">
+      <c r="P81" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="51">
         <v>1</v>
       </c>
       <c r="R81" s="19">
@@ -7545,10 +7568,10 @@
       <c r="O82" s="48">
         <v>1</v>
       </c>
-      <c r="P82" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="11">
+      <c r="P82" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="50">
         <v>1</v>
       </c>
       <c r="R82" s="15">
@@ -8717,10 +8740,10 @@
       <c r="O99" s="49">
         <v>8</v>
       </c>
-      <c r="P99" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="13">
+      <c r="P99" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="51">
         <v>8</v>
       </c>
       <c r="R99" s="19">
@@ -8789,10 +8812,10 @@
       <c r="O100" s="48">
         <v>16</v>
       </c>
-      <c r="P100" s="11">
+      <c r="P100" s="50">
         <v>9</v>
       </c>
-      <c r="Q100" s="11">
+      <c r="Q100" s="50">
         <v>16</v>
       </c>
       <c r="R100" s="15">
@@ -8861,10 +8884,10 @@
       <c r="O101" s="49">
         <v>21</v>
       </c>
-      <c r="P101" s="13">
+      <c r="P101" s="51">
         <v>17</v>
       </c>
-      <c r="Q101" s="13">
+      <c r="Q101" s="51">
         <v>21</v>
       </c>
       <c r="R101" s="19">
@@ -8933,10 +8956,10 @@
       <c r="O102" s="48">
         <v>27</v>
       </c>
-      <c r="P102" s="11">
+      <c r="P102" s="50">
         <v>22</v>
       </c>
-      <c r="Q102" s="11">
+      <c r="Q102" s="50">
         <v>25</v>
       </c>
       <c r="R102" s="15">
@@ -9005,10 +9028,10 @@
       <c r="O103" s="49">
         <v>39</v>
       </c>
-      <c r="P103" s="13">
+      <c r="P103" s="51">
         <v>26</v>
       </c>
-      <c r="Q103" s="13">
+      <c r="Q103" s="51">
         <v>35</v>
       </c>
       <c r="R103" s="19">
@@ -9077,10 +9100,10 @@
       <c r="O104" s="48">
         <v>45</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P104" s="50">
         <v>36</v>
       </c>
-      <c r="Q104" s="11">
+      <c r="Q104" s="50">
         <v>40</v>
       </c>
       <c r="R104" s="15">
@@ -9149,10 +9172,10 @@
       <c r="O105" s="49">
         <v>1</v>
       </c>
-      <c r="P105" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="13">
+      <c r="P105" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="51">
         <v>1</v>
       </c>
       <c r="R105" s="19">
@@ -9219,10 +9242,10 @@
       <c r="O106" s="48">
         <v>5</v>
       </c>
-      <c r="P106" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="11">
+      <c r="P106" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="50">
         <v>5</v>
       </c>
       <c r="R106" s="15">
@@ -9291,10 +9314,10 @@
       <c r="O107" s="49">
         <v>12</v>
       </c>
-      <c r="P107" s="13">
+      <c r="P107" s="51">
         <v>6</v>
       </c>
-      <c r="Q107" s="13">
+      <c r="Q107" s="51">
         <v>12</v>
       </c>
       <c r="R107" s="19">
@@ -9363,10 +9386,10 @@
       <c r="O108" s="48">
         <v>18</v>
       </c>
-      <c r="P108" s="11">
+      <c r="P108" s="50">
         <v>13</v>
       </c>
-      <c r="Q108" s="11">
+      <c r="Q108" s="50">
         <v>18</v>
       </c>
       <c r="R108" s="15">
@@ -9435,10 +9458,10 @@
       <c r="O109" s="49">
         <v>22</v>
       </c>
-      <c r="P109" s="13">
+      <c r="P109" s="51">
         <v>19</v>
       </c>
-      <c r="Q109" s="13">
+      <c r="Q109" s="51">
         <v>22</v>
       </c>
       <c r="R109" s="19">
@@ -9505,10 +9528,10 @@
       <c r="O110" s="48">
         <v>27</v>
       </c>
-      <c r="P110" s="11">
+      <c r="P110" s="50">
         <v>23</v>
       </c>
-      <c r="Q110" s="11">
+      <c r="Q110" s="50">
         <v>27</v>
       </c>
       <c r="R110" s="15">
@@ -9575,10 +9598,10 @@
       <c r="O111" s="49">
         <v>34</v>
       </c>
-      <c r="P111" s="13">
+      <c r="P111" s="51">
         <v>28</v>
       </c>
-      <c r="Q111" s="13">
+      <c r="Q111" s="51">
         <v>30</v>
       </c>
       <c r="R111" s="19">
@@ -9647,10 +9670,10 @@
       <c r="O112" s="48">
         <v>6</v>
       </c>
-      <c r="P112" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="11">
+      <c r="P112" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="50">
         <v>6</v>
       </c>
       <c r="R112" s="15">
@@ -9719,10 +9742,10 @@
       <c r="O113" s="49">
         <v>11</v>
       </c>
-      <c r="P113" s="13">
+      <c r="P113" s="51">
         <v>7</v>
       </c>
-      <c r="Q113" s="13">
+      <c r="Q113" s="51">
         <v>10</v>
       </c>
       <c r="R113" s="19">
@@ -9789,10 +9812,10 @@
       <c r="O114" s="48">
         <v>11</v>
       </c>
-      <c r="P114" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="11">
+      <c r="P114" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="50">
         <v>11</v>
       </c>
       <c r="R114" s="15">
@@ -9861,10 +9884,10 @@
       <c r="O115" s="49">
         <v>15</v>
       </c>
-      <c r="P115" s="13">
+      <c r="P115" s="51">
         <v>12</v>
       </c>
-      <c r="Q115" s="13">
+      <c r="Q115" s="51">
         <v>15</v>
       </c>
       <c r="R115" s="19">
@@ -9931,10 +9954,10 @@
       <c r="O116" s="48">
         <v>19</v>
       </c>
-      <c r="P116" s="11">
+      <c r="P116" s="50">
         <v>16</v>
       </c>
-      <c r="Q116" s="11">
+      <c r="Q116" s="50">
         <v>18</v>
       </c>
       <c r="R116" s="15">
@@ -10001,10 +10024,10 @@
       <c r="O117" s="49">
         <v>1</v>
       </c>
-      <c r="P117" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="13">
+      <c r="P117" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="51">
         <v>1</v>
       </c>
       <c r="R117" s="19">
@@ -10071,10 +10094,10 @@
       <c r="O118" s="48">
         <v>4</v>
       </c>
-      <c r="P118" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="11">
+      <c r="P118" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="50">
         <v>3</v>
       </c>
       <c r="R118" s="15">
@@ -10141,10 +10164,10 @@
       <c r="O119" s="49">
         <v>6</v>
       </c>
-      <c r="P119" s="13">
+      <c r="P119" s="51">
         <v>4</v>
       </c>
-      <c r="Q119" s="13">
+      <c r="Q119" s="51">
         <v>7</v>
       </c>
       <c r="R119" s="19">
@@ -10211,10 +10234,10 @@
       <c r="O120" s="48">
         <v>8</v>
       </c>
-      <c r="P120" s="11">
+      <c r="P120" s="50">
         <v>8</v>
       </c>
-      <c r="Q120" s="11">
+      <c r="Q120" s="50">
         <v>9</v>
       </c>
       <c r="R120" s="15">
@@ -10281,10 +10304,10 @@
       <c r="O121" s="49">
         <v>10</v>
       </c>
-      <c r="P121" s="13">
+      <c r="P121" s="51">
         <v>10</v>
       </c>
-      <c r="Q121" s="13">
+      <c r="Q121" s="51">
         <v>10</v>
       </c>
       <c r="R121" s="19">
@@ -10351,10 +10374,10 @@
       <c r="O122" s="48">
         <v>2</v>
       </c>
-      <c r="P122" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="11">
+      <c r="P122" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="50">
         <v>2</v>
       </c>
       <c r="R122" s="15">
@@ -10421,10 +10444,10 @@
       <c r="O123" s="49">
         <v>6</v>
       </c>
-      <c r="P123" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="13">
+      <c r="P123" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="51">
         <v>6</v>
       </c>
       <c r="R123" s="19">
@@ -10493,10 +10516,10 @@
       <c r="O124" s="48">
         <v>1</v>
       </c>
-      <c r="P124" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="11">
+      <c r="P124" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="50">
         <v>1</v>
       </c>
       <c r="R124" s="15">
@@ -10563,10 +10586,10 @@
       <c r="O125" s="49">
         <v>8</v>
       </c>
-      <c r="P125" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q125" s="13">
+      <c r="P125" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="51">
         <v>7</v>
       </c>
       <c r="R125" s="19">
@@ -10635,10 +10658,10 @@
       <c r="O126" s="48">
         <v>15</v>
       </c>
-      <c r="P126" s="11">
+      <c r="P126" s="50">
         <v>8</v>
       </c>
-      <c r="Q126" s="11">
+      <c r="Q126" s="50">
         <v>14</v>
       </c>
       <c r="R126" s="15">
@@ -10707,10 +10730,10 @@
       <c r="O127" s="49">
         <v>2</v>
       </c>
-      <c r="P127" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="13">
+      <c r="P127" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="51">
         <v>1</v>
       </c>
       <c r="R127" s="19">
@@ -10777,10 +10800,10 @@
       <c r="O128" s="48">
         <v>3</v>
       </c>
-      <c r="P128" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="11">
+      <c r="P128" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="50">
         <v>3</v>
       </c>
       <c r="R128" s="15">
@@ -10847,10 +10870,10 @@
       <c r="O129" s="49">
         <v>6</v>
       </c>
-      <c r="P129" s="13">
+      <c r="P129" s="51">
         <v>4</v>
       </c>
-      <c r="Q129" s="13">
+      <c r="Q129" s="51">
         <v>6</v>
       </c>
       <c r="R129" s="19">
@@ -10917,10 +10940,10 @@
       <c r="O130" s="48">
         <v>9</v>
       </c>
-      <c r="P130" s="11">
+      <c r="P130" s="50">
         <v>7</v>
       </c>
-      <c r="Q130" s="11">
+      <c r="Q130" s="50">
         <v>9</v>
       </c>
       <c r="R130" s="15">
@@ -10987,10 +11010,10 @@
       <c r="O131" s="49">
         <v>1</v>
       </c>
-      <c r="P131" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="13">
+      <c r="P131" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="51">
         <v>1</v>
       </c>
       <c r="R131" s="19">
@@ -11057,10 +11080,10 @@
       <c r="O132" s="48">
         <v>4</v>
       </c>
-      <c r="P132" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="11">
+      <c r="P132" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="50">
         <v>3</v>
       </c>
       <c r="R132" s="15">
@@ -11127,10 +11150,10 @@
       <c r="O133" s="49">
         <v>10</v>
       </c>
-      <c r="P133" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="13">
+      <c r="P133" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="51">
         <v>10</v>
       </c>
       <c r="R133" s="19">
@@ -11199,10 +11222,10 @@
       <c r="O134" s="48">
         <v>17</v>
       </c>
-      <c r="P134" s="11">
+      <c r="P134" s="50">
         <v>11</v>
       </c>
-      <c r="Q134" s="11">
+      <c r="Q134" s="50">
         <v>16</v>
       </c>
       <c r="R134" s="15">
@@ -11271,10 +11294,10 @@
       <c r="O135" s="49">
         <v>23</v>
       </c>
-      <c r="P135" s="13">
+      <c r="P135" s="51">
         <v>17</v>
       </c>
-      <c r="Q135" s="13">
+      <c r="Q135" s="51">
         <v>22</v>
       </c>
       <c r="R135" s="19">
@@ -11343,10 +11366,10 @@
       <c r="O136" s="48">
         <v>30</v>
       </c>
-      <c r="P136" s="11">
+      <c r="P136" s="50">
         <v>23</v>
       </c>
-      <c r="Q136" s="11">
+      <c r="Q136" s="50">
         <v>27</v>
       </c>
       <c r="R136" s="15">
@@ -11413,10 +11436,10 @@
       <c r="O137" s="49">
         <v>37</v>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="51">
         <v>28</v>
       </c>
-      <c r="Q137" s="13">
+      <c r="Q137" s="51">
         <v>33</v>
       </c>
       <c r="R137" s="19">
@@ -11485,10 +11508,10 @@
       <c r="O138" s="48">
         <v>47</v>
       </c>
-      <c r="P138" s="11">
+      <c r="P138" s="50">
         <v>34</v>
       </c>
-      <c r="Q138" s="11">
+      <c r="Q138" s="50">
         <v>43</v>
       </c>
       <c r="R138" s="15">
@@ -11557,10 +11580,10 @@
       <c r="O139" s="49">
         <v>57</v>
       </c>
-      <c r="P139" s="13">
+      <c r="P139" s="51">
         <v>44</v>
       </c>
-      <c r="Q139" s="13">
+      <c r="Q139" s="51">
         <v>53</v>
       </c>
       <c r="R139" s="19">
@@ -11629,10 +11652,10 @@
       <c r="O140" s="48">
         <v>67</v>
       </c>
-      <c r="P140" s="11">
+      <c r="P140" s="50">
         <v>54</v>
       </c>
-      <c r="Q140" s="11">
+      <c r="Q140" s="50">
         <v>63</v>
       </c>
       <c r="R140" s="15">
@@ -11701,10 +11724,10 @@
       <c r="O141" s="49">
         <v>71</v>
       </c>
-      <c r="P141" s="13">
+      <c r="P141" s="51">
         <v>64</v>
       </c>
-      <c r="Q141" s="13">
+      <c r="Q141" s="51">
         <v>67</v>
       </c>
       <c r="R141" s="19">
@@ -11771,10 +11794,10 @@
       <c r="O142" s="48">
         <v>77</v>
       </c>
-      <c r="P142" s="11">
+      <c r="P142" s="50">
         <v>68</v>
       </c>
-      <c r="Q142" s="11">
+      <c r="Q142" s="50">
         <v>73</v>
       </c>
       <c r="R142" s="15">
@@ -11841,10 +11864,10 @@
       <c r="O143" s="49">
         <v>81</v>
       </c>
-      <c r="P143" s="13">
+      <c r="P143" s="51">
         <v>74</v>
       </c>
-      <c r="Q143" s="13">
+      <c r="Q143" s="51">
         <v>76</v>
       </c>
       <c r="R143" s="19">
@@ -11911,10 +11934,10 @@
       <c r="O144" s="48">
         <v>5</v>
       </c>
-      <c r="P144" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="11">
+      <c r="P144" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="50">
         <v>4</v>
       </c>
       <c r="R144" s="15">
@@ -11981,10 +12004,10 @@
       <c r="O145" s="49">
         <v>5</v>
       </c>
-      <c r="P145" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="13">
+      <c r="P145" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="51">
         <v>5</v>
       </c>
       <c r="R145" s="19">
@@ -12051,10 +12074,10 @@
       <c r="O146" s="48">
         <v>9</v>
       </c>
-      <c r="P146" s="11">
+      <c r="P146" s="50">
         <v>6</v>
       </c>
-      <c r="Q146" s="11">
+      <c r="Q146" s="50">
         <v>9</v>
       </c>
       <c r="R146" s="15">
@@ -12121,10 +12144,10 @@
       <c r="O147" s="49">
         <v>13</v>
       </c>
-      <c r="P147" s="13">
+      <c r="P147" s="51">
         <v>10</v>
       </c>
-      <c r="Q147" s="13">
+      <c r="Q147" s="51">
         <v>13</v>
       </c>
       <c r="R147" s="19">
@@ -12191,10 +12214,10 @@
       <c r="O148" s="48">
         <v>19</v>
       </c>
-      <c r="P148" s="11">
+      <c r="P148" s="50">
         <v>14</v>
       </c>
-      <c r="Q148" s="11">
+      <c r="Q148" s="50">
         <v>18</v>
       </c>
       <c r="R148" s="15">
@@ -12261,10 +12284,10 @@
       <c r="O149" s="49">
         <v>1</v>
       </c>
-      <c r="P149" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="13">
+      <c r="P149" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="51">
         <v>1</v>
       </c>
       <c r="R149" s="19">
@@ -12331,10 +12354,10 @@
       <c r="O150" s="48">
         <v>2</v>
       </c>
-      <c r="P150" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="11">
+      <c r="P150" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="50">
         <v>2</v>
       </c>
       <c r="R150" s="15">
@@ -12401,10 +12424,10 @@
       <c r="O151" s="49">
         <v>2</v>
       </c>
-      <c r="P151" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q151" s="13">
+      <c r="P151" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="51">
         <v>1</v>
       </c>
       <c r="R151" s="19">
@@ -12471,10 +12494,10 @@
       <c r="O152" s="48">
         <v>2</v>
       </c>
-      <c r="P152" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="11">
+      <c r="P152" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="50">
         <v>2</v>
       </c>
       <c r="R152" s="15">
@@ -12541,10 +12564,10 @@
       <c r="O153" s="49">
         <v>1</v>
       </c>
-      <c r="P153" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q153" s="13">
+      <c r="P153" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="51">
         <v>1</v>
       </c>
       <c r="R153" s="19">
@@ -12611,10 +12634,10 @@
       <c r="O154" s="48">
         <v>5</v>
       </c>
-      <c r="P154" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="11">
+      <c r="P154" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="50">
         <v>5</v>
       </c>
       <c r="R154" s="15">
@@ -12681,10 +12704,10 @@
       <c r="O155" s="49">
         <v>10</v>
       </c>
-      <c r="P155" s="13">
+      <c r="P155" s="51">
         <v>6</v>
       </c>
-      <c r="Q155" s="13">
+      <c r="Q155" s="51">
         <v>10</v>
       </c>
       <c r="R155" s="19">
@@ -12751,10 +12774,10 @@
       <c r="O156" s="48">
         <v>13</v>
       </c>
-      <c r="P156" s="11">
+      <c r="P156" s="50">
         <v>11</v>
       </c>
-      <c r="Q156" s="11">
+      <c r="Q156" s="50">
         <v>14</v>
       </c>
       <c r="R156" s="15">
@@ -12821,10 +12844,10 @@
       <c r="O157" s="49">
         <v>18</v>
       </c>
-      <c r="P157" s="13">
+      <c r="P157" s="51">
         <v>15</v>
       </c>
-      <c r="Q157" s="13">
+      <c r="Q157" s="51">
         <v>19</v>
       </c>
       <c r="R157" s="19">
@@ -12893,10 +12916,10 @@
       <c r="O158" s="48">
         <v>28</v>
       </c>
-      <c r="P158" s="11">
+      <c r="P158" s="50">
         <v>20</v>
       </c>
-      <c r="Q158" s="11">
+      <c r="Q158" s="50">
         <v>28</v>
       </c>
       <c r="R158" s="15">
@@ -12965,10 +12988,10 @@
       <c r="O159" s="49">
         <v>35</v>
       </c>
-      <c r="P159" s="13">
+      <c r="P159" s="51">
         <v>29</v>
       </c>
-      <c r="Q159" s="13">
+      <c r="Q159" s="51">
         <v>34</v>
       </c>
       <c r="R159" s="19">
@@ -13037,10 +13060,10 @@
       <c r="O160" s="48">
         <v>42</v>
       </c>
-      <c r="P160" s="11">
+      <c r="P160" s="50">
         <v>35</v>
       </c>
-      <c r="Q160" s="11">
+      <c r="Q160" s="50">
         <v>41</v>
       </c>
       <c r="R160" s="15">
@@ -13109,10 +13132,10 @@
       <c r="O161" s="49">
         <v>8</v>
       </c>
-      <c r="P161" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="13">
+      <c r="P161" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="51">
         <v>6</v>
       </c>
       <c r="R161" s="19">
@@ -13181,10 +13204,10 @@
       <c r="O162" s="48">
         <v>17</v>
       </c>
-      <c r="P162" s="11">
+      <c r="P162" s="50">
         <v>7</v>
       </c>
-      <c r="Q162" s="11">
+      <c r="Q162" s="50">
         <v>15</v>
       </c>
       <c r="R162" s="15">
@@ -13253,10 +13276,10 @@
       <c r="O163" s="49">
         <v>20</v>
       </c>
-      <c r="P163" s="13">
+      <c r="P163" s="51">
         <v>16</v>
       </c>
-      <c r="Q163" s="13">
+      <c r="Q163" s="51">
         <v>18</v>
       </c>
       <c r="R163" s="19">
@@ -13323,10 +13346,10 @@
       <c r="O164" s="48">
         <v>23</v>
       </c>
-      <c r="P164" s="11">
+      <c r="P164" s="50">
         <v>19</v>
       </c>
-      <c r="Q164" s="11">
+      <c r="Q164" s="50">
         <v>22</v>
       </c>
       <c r="R164" s="15">
@@ -13393,10 +13416,10 @@
       <c r="O165" s="49">
         <v>1</v>
       </c>
-      <c r="P165" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q165" s="13">
+      <c r="P165" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="51">
         <v>1</v>
       </c>
       <c r="R165" s="19">
@@ -13463,10 +13486,10 @@
       <c r="O166" s="48">
         <v>5</v>
       </c>
-      <c r="P166" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q166" s="11">
+      <c r="P166" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="50">
         <v>5</v>
       </c>
       <c r="R166" s="15">
@@ -13533,10 +13556,10 @@
       <c r="O167" s="49">
         <v>10</v>
       </c>
-      <c r="P167" s="13">
+      <c r="P167" s="51">
         <v>6</v>
       </c>
-      <c r="Q167" s="13">
+      <c r="Q167" s="51">
         <v>10</v>
       </c>
       <c r="R167" s="19">
@@ -13603,10 +13626,10 @@
       <c r="O168" s="48">
         <v>13</v>
       </c>
-      <c r="P168" s="11">
+      <c r="P168" s="50">
         <v>11</v>
       </c>
-      <c r="Q168" s="11">
+      <c r="Q168" s="50">
         <v>12</v>
       </c>
       <c r="R168" s="15">
@@ -13673,10 +13696,10 @@
       <c r="O169" s="49">
         <v>2</v>
       </c>
-      <c r="P169" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q169" s="13">
+      <c r="P169" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="51">
         <v>2</v>
       </c>
       <c r="R169" s="19">
@@ -13743,10 +13766,10 @@
       <c r="O170" s="48">
         <v>2</v>
       </c>
-      <c r="P170" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q170" s="11">
+      <c r="P170" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="50">
         <v>1</v>
       </c>
       <c r="R170" s="15">
@@ -13813,10 +13836,10 @@
       <c r="O171" s="49">
         <v>5</v>
       </c>
-      <c r="P171" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q171" s="13">
+      <c r="P171" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="51">
         <v>5</v>
       </c>
       <c r="R171" s="19">
@@ -13883,10 +13906,10 @@
       <c r="O172" s="48">
         <v>10</v>
       </c>
-      <c r="P172" s="11">
+      <c r="P172" s="50">
         <v>6</v>
       </c>
-      <c r="Q172" s="11">
+      <c r="Q172" s="50">
         <v>10</v>
       </c>
       <c r="R172" s="15">
